--- a/Anova_Testing.xlsx
+++ b/Anova_Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ISB-Tutorials\SA1\Tutorial2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6AAA16E4-4B66-48DF-A897-AADA8BC36BFF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0498FA5F-39CA-45CB-ACE7-F1473EAFEA59}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2050,7 +2050,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="9">
-        <f>F34/C37:C38</f>
+        <f>F34/C37</f>
         <v>2.6125446428571359E-2</v>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
   <dimension ref="A2:O25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2324,7 +2324,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1">
@@ -2369,7 +2369,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1">
@@ -2414,7 +2414,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="1">
@@ -2459,7 +2459,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="1">
@@ -2504,7 +2504,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="1">
